--- a/data/impala_vlm.xlsx
+++ b/data/impala_vlm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valen\git\2D_DistanceSampling\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70977EBA-91B4-4A61-86F9-3D0345A0CA97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E77F1B-FA48-402E-ADAD-0B40999B0494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2100" yWindow="1470" windowWidth="16310" windowHeight="9070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template_dataset" sheetId="2" r:id="rId1"/>
@@ -446,13 +446,13 @@
     <t>area</t>
   </si>
   <si>
-    <t>id_record</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
     <t>detected</t>
+  </si>
+  <si>
+    <t>object</t>
   </si>
 </sst>
 </file>
@@ -787,7 +787,7 @@
   <dimension ref="A1:T107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -820,7 +820,7 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -832,7 +832,7 @@
         <v>1</v>
       </c>
       <c r="K1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -882,10 +882,10 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -908,10 +908,10 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -934,10 +934,10 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1030,10 +1030,10 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1232,10 +1232,10 @@
       </c>
       <c r="D14" s="4"/>
       <c r="E14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1258,10 +1258,10 @@
       </c>
       <c r="D15" s="4"/>
       <c r="E15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1284,10 +1284,10 @@
       </c>
       <c r="D16" s="4"/>
       <c r="E16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1520,10 +1520,10 @@
       </c>
       <c r="D23" s="4"/>
       <c r="E23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1546,10 +1546,10 @@
       </c>
       <c r="D24" s="4"/>
       <c r="E24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1572,10 +1572,10 @@
       </c>
       <c r="D25" s="4"/>
       <c r="E25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1843,10 +1843,10 @@
       </c>
       <c r="D33" s="4"/>
       <c r="E33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1869,10 +1869,10 @@
       </c>
       <c r="D34" s="4"/>
       <c r="E34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1895,10 +1895,10 @@
       </c>
       <c r="D35" s="4"/>
       <c r="E35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1921,10 +1921,10 @@
       </c>
       <c r="D36" s="4"/>
       <c r="E36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -2367,10 +2367,10 @@
       </c>
       <c r="D49" s="4"/>
       <c r="E49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -2428,10 +2428,10 @@
       </c>
       <c r="D51" s="4"/>
       <c r="E51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -2699,10 +2699,10 @@
       </c>
       <c r="D59" s="4"/>
       <c r="E59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -2725,10 +2725,10 @@
       </c>
       <c r="D60" s="4"/>
       <c r="E60" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F60" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -2751,10 +2751,10 @@
       </c>
       <c r="D61" s="4"/>
       <c r="E61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -2777,10 +2777,10 @@
       </c>
       <c r="D62" s="4"/>
       <c r="E62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -2803,10 +2803,10 @@
       </c>
       <c r="D63" s="4"/>
       <c r="E63" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F63" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -2829,10 +2829,10 @@
       </c>
       <c r="D64" s="4"/>
       <c r="E64" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F64" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -2855,10 +2855,10 @@
       </c>
       <c r="D65" s="4"/>
       <c r="E65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -2881,10 +2881,10 @@
       </c>
       <c r="D66" s="4"/>
       <c r="E66" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F66" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -2907,10 +2907,10 @@
       </c>
       <c r="D67" s="4"/>
       <c r="E67" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F67" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -2968,10 +2968,10 @@
       </c>
       <c r="D69" s="4"/>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F69" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -2994,10 +2994,10 @@
       </c>
       <c r="D70" s="4"/>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F70" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -3020,10 +3020,10 @@
       </c>
       <c r="D71" s="4"/>
       <c r="E71" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F71" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -3431,10 +3431,10 @@
       </c>
       <c r="D83" s="4"/>
       <c r="E83" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F83" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -3562,10 +3562,10 @@
       </c>
       <c r="D87" s="4"/>
       <c r="E87" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F87" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -3588,10 +3588,10 @@
       </c>
       <c r="D88" s="4"/>
       <c r="E88" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F88" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -3754,10 +3754,10 @@
       </c>
       <c r="D93" s="4"/>
       <c r="E93" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F93" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -3815,10 +3815,10 @@
       </c>
       <c r="D95" s="4"/>
       <c r="E95" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F95" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -3946,10 +3946,10 @@
       </c>
       <c r="D99" s="4"/>
       <c r="E99" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F99" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -3972,10 +3972,10 @@
       </c>
       <c r="D100" s="4"/>
       <c r="E100" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F100" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -3998,10 +3998,10 @@
       </c>
       <c r="D101" s="4"/>
       <c r="E101" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F101" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -4024,10 +4024,10 @@
       </c>
       <c r="D102" s="4"/>
       <c r="E102" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F102" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -4050,10 +4050,10 @@
       </c>
       <c r="D103" s="4"/>
       <c r="E103" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F103" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -4076,10 +4076,10 @@
       </c>
       <c r="D104" s="4"/>
       <c r="E104" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F104" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -4102,10 +4102,10 @@
       </c>
       <c r="D105" s="4"/>
       <c r="E105" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F105" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -4128,10 +4128,10 @@
       </c>
       <c r="D106" s="4"/>
       <c r="E106" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F106" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -4154,10 +4154,10 @@
       </c>
       <c r="D107" s="4"/>
       <c r="E107" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F107" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G107">
         <v>0</v>

--- a/data/impala_vlm.xlsx
+++ b/data/impala_vlm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valen\git\2D_DistanceSampling\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E77F1B-FA48-402E-ADAD-0B40999B0494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86AF966-78AB-4882-BE09-DDFB1B94EDEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="1470" windowWidth="16310" windowHeight="9070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5990" yWindow="590" windowWidth="13390" windowHeight="9410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template_dataset" sheetId="2" r:id="rId1"/>
@@ -784,23 +784,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BE390D-F383-42DD-BAF2-F15C062717DB}">
-  <dimension ref="A1:T107"/>
+  <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="15.453125" customWidth="1"/>
     <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>135</v>
       </c>
@@ -810,32 +810,32 @@
       <c r="C1" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>133</v>
+      <c r="D1" t="s">
+        <v>137</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>138</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>137</v>
+        <v>1</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
-        <v>0</v>
+      <c r="I1" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="J1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>487</v>
       </c>
@@ -845,32 +845,32 @@
       <c r="C2">
         <v>16.849</v>
       </c>
-      <c r="D2" s="4">
-        <v>44445.315972222219</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>55</v>
+      </c>
+      <c r="G2" s="3">
+        <v>41</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
-      <c r="I2" s="3">
-        <v>55</v>
-      </c>
-      <c r="J2" s="3">
-        <v>41</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="I2" s="4">
+        <v>44445.315972222219</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>487</v>
       </c>
@@ -880,23 +880,23 @@
       <c r="C3">
         <v>6.0979999999999999</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F3" t="s">
-        <v>136</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="I3" s="4"/>
+      <c r="J3" t="s">
+        <v>136</v>
+      </c>
+      <c r="K3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>487</v>
       </c>
@@ -906,23 +906,23 @@
       <c r="C4">
         <v>8.2080000000000002</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F4" t="s">
-        <v>136</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="I4" s="4"/>
+      <c r="J4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>487</v>
       </c>
@@ -932,23 +932,23 @@
       <c r="C5">
         <v>6.3090000000000002</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F5" t="s">
-        <v>136</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="I5" s="4"/>
+      <c r="J5" t="s">
+        <v>136</v>
+      </c>
+      <c r="K5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>487</v>
       </c>
@@ -958,32 +958,32 @@
       <c r="C6">
         <v>24.617999999999999</v>
       </c>
-      <c r="D6" s="4">
-        <v>44446.272222222222</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3">
+        <v>27</v>
+      </c>
+      <c r="G6" s="3">
+        <v>102</v>
       </c>
       <c r="H6">
         <v>8</v>
       </c>
-      <c r="I6" s="3">
-        <v>27</v>
-      </c>
-      <c r="J6" s="3">
-        <v>102</v>
-      </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="I6" s="4">
+        <v>44446.272222222222</v>
+      </c>
+      <c r="J6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>487</v>
       </c>
@@ -993,32 +993,32 @@
       <c r="C7">
         <v>24.617999999999999</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7" s="3">
+        <v>69</v>
+      </c>
+      <c r="G7" s="3">
+        <v>-77</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4">
         <v>44446.333333333336</v>
       </c>
-      <c r="E7" t="s">
+      <c r="J7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" t="s">
+      <c r="K7" t="s">
         <v>12</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3">
-        <v>69</v>
-      </c>
-      <c r="J7" s="3">
-        <v>-77</v>
-      </c>
-      <c r="K7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>487</v>
       </c>
@@ -1028,23 +1028,23 @@
       <c r="C8">
         <v>4.0129999999999999</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F8" t="s">
-        <v>136</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="I8" s="4"/>
+      <c r="J8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>487</v>
       </c>
@@ -1054,32 +1054,32 @@
       <c r="C9">
         <v>11.859</v>
       </c>
-      <c r="D9" s="4">
-        <v>44446.703472222223</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9" s="3">
+        <v>224</v>
+      </c>
+      <c r="G9" s="3">
+        <v>195</v>
       </c>
       <c r="H9">
         <v>5</v>
       </c>
-      <c r="I9" s="3">
-        <v>224</v>
-      </c>
-      <c r="J9" s="3">
-        <v>195</v>
-      </c>
-      <c r="K9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="I9" s="4">
+        <v>44446.703472222223</v>
+      </c>
+      <c r="J9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>487</v>
       </c>
@@ -1089,32 +1089,32 @@
       <c r="C10">
         <v>11.859</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10" s="3">
+        <v>148</v>
+      </c>
+      <c r="G10" s="3">
+        <v>25</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4">
         <v>44446.720138888886</v>
       </c>
-      <c r="E10" t="s">
+      <c r="J10" t="s">
         <v>15</v>
       </c>
-      <c r="F10" t="s">
+      <c r="K10" t="s">
         <v>16</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3">
-        <v>148</v>
-      </c>
-      <c r="J10" s="3">
-        <v>25</v>
-      </c>
-      <c r="K10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>487</v>
       </c>
@@ -1124,32 +1124,32 @@
       <c r="C11">
         <v>11.859</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3">
+        <v>34</v>
+      </c>
+      <c r="G11" s="3">
+        <v>-4</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4">
         <v>44446.727083333331</v>
       </c>
-      <c r="E11" t="s">
+      <c r="J11" t="s">
         <v>17</v>
       </c>
-      <c r="F11" t="s">
+      <c r="K11" t="s">
         <v>18</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11" s="3">
-        <v>34</v>
-      </c>
-      <c r="J11" s="3">
-        <v>-4</v>
-      </c>
-      <c r="K11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>487</v>
       </c>
@@ -1159,33 +1159,33 @@
       <c r="C12">
         <v>11.859</v>
       </c>
-      <c r="D12" s="4">
-        <v>44446.738194444442</v>
-      </c>
-      <c r="E12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="F12" s="3">
+        <v>73</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
       </c>
       <c r="H12">
         <v>2</v>
       </c>
-      <c r="I12" s="3">
-        <v>73</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>11</v>
-      </c>
-      <c r="T12" s="1"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="I12" s="4">
+        <v>44446.738194444442</v>
+      </c>
+      <c r="J12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>487</v>
       </c>
@@ -1195,32 +1195,32 @@
       <c r="C13">
         <v>11.859</v>
       </c>
-      <c r="D13" s="4">
-        <v>44446.751388888886</v>
-      </c>
-      <c r="E13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13" s="3">
+        <v>20</v>
+      </c>
+      <c r="G13" s="3">
+        <v>9</v>
       </c>
       <c r="H13">
         <v>8</v>
       </c>
-      <c r="I13" s="3">
-        <v>20</v>
-      </c>
-      <c r="J13" s="3">
-        <v>9</v>
-      </c>
-      <c r="K13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="I13" s="4">
+        <v>44446.751388888886</v>
+      </c>
+      <c r="J13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>487</v>
       </c>
@@ -1230,23 +1230,23 @@
       <c r="C14">
         <v>12.569000000000001</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" t="s">
-        <v>136</v>
-      </c>
-      <c r="F14" t="s">
-        <v>136</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="I14" s="4"/>
+      <c r="J14" t="s">
+        <v>136</v>
+      </c>
+      <c r="K14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>487</v>
       </c>
@@ -1256,23 +1256,23 @@
       <c r="C15">
         <v>7.1870000000000003</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" t="s">
-        <v>136</v>
-      </c>
-      <c r="F15" t="s">
-        <v>136</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="I15" s="4"/>
+      <c r="J15" t="s">
+        <v>136</v>
+      </c>
+      <c r="K15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>487</v>
       </c>
@@ -1282,20 +1282,20 @@
       <c r="C16">
         <v>10.994999999999999</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" t="s">
-        <v>136</v>
-      </c>
-      <c r="F16" t="s">
-        <v>136</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16">
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
         <v>15</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="I16" s="4"/>
+      <c r="J16" t="s">
+        <v>136</v>
+      </c>
+      <c r="K16" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -1308,29 +1308,29 @@
       <c r="C17">
         <v>10.269</v>
       </c>
-      <c r="D17" s="4">
-        <v>44447.697222222225</v>
-      </c>
-      <c r="E17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+      <c r="F17" s="3">
+        <v>32</v>
+      </c>
+      <c r="G17" s="3">
+        <v>15</v>
       </c>
       <c r="H17">
         <v>2</v>
       </c>
-      <c r="I17" s="3">
-        <v>32</v>
-      </c>
-      <c r="J17" s="3">
-        <v>15</v>
-      </c>
-      <c r="K17">
-        <v>16</v>
+      <c r="I17" s="4">
+        <v>44447.697222222225</v>
+      </c>
+      <c r="J17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
@@ -1343,29 +1343,29 @@
       <c r="C18">
         <v>3.05</v>
       </c>
-      <c r="D18" s="4">
-        <v>44447.732638888891</v>
-      </c>
-      <c r="E18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>17</v>
+      </c>
+      <c r="F18" s="3">
+        <v>85</v>
+      </c>
+      <c r="G18" s="3">
+        <v>68</v>
       </c>
       <c r="H18">
         <v>4</v>
       </c>
-      <c r="I18" s="3">
-        <v>85</v>
-      </c>
-      <c r="J18" s="3">
-        <v>68</v>
-      </c>
-      <c r="K18">
-        <v>17</v>
+      <c r="I18" s="4">
+        <v>44447.732638888891</v>
+      </c>
+      <c r="J18" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
@@ -1378,29 +1378,29 @@
       <c r="C19">
         <v>18.754999999999999</v>
       </c>
-      <c r="D19" s="4">
-        <v>44448.712500000001</v>
-      </c>
-      <c r="E19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>18</v>
+      </c>
+      <c r="F19" s="3">
+        <v>65</v>
+      </c>
+      <c r="G19" s="3">
+        <v>21</v>
       </c>
       <c r="H19">
         <v>3</v>
       </c>
-      <c r="I19" s="3">
-        <v>65</v>
-      </c>
-      <c r="J19" s="3">
-        <v>21</v>
-      </c>
-      <c r="K19">
-        <v>18</v>
+      <c r="I19" s="4">
+        <v>44448.712500000001</v>
+      </c>
+      <c r="J19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -1413,29 +1413,29 @@
       <c r="C20">
         <v>18.754999999999999</v>
       </c>
-      <c r="D20" s="4">
-        <v>44448.715277777781</v>
-      </c>
-      <c r="E20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>19</v>
+      </c>
+      <c r="F20" s="3">
         <v>30</v>
       </c>
-      <c r="G20">
-        <v>1</v>
+      <c r="G20" s="3">
+        <v>344</v>
       </c>
       <c r="H20">
         <v>15</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="4">
+        <v>44448.715277777781</v>
+      </c>
+      <c r="J20" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" t="s">
         <v>30</v>
-      </c>
-      <c r="J20" s="3">
-        <v>344</v>
-      </c>
-      <c r="K20">
-        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -1448,29 +1448,29 @@
       <c r="C21">
         <v>18.754999999999999</v>
       </c>
-      <c r="D21" s="4">
-        <v>44448.724305555559</v>
-      </c>
-      <c r="E21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="F21" s="3">
+        <v>57</v>
+      </c>
+      <c r="G21" s="3">
+        <v>81</v>
       </c>
       <c r="H21">
         <v>13</v>
       </c>
-      <c r="I21" s="3">
-        <v>57</v>
-      </c>
-      <c r="J21" s="3">
-        <v>81</v>
-      </c>
-      <c r="K21">
-        <v>20</v>
+      <c r="I21" s="4">
+        <v>44448.724305555559</v>
+      </c>
+      <c r="J21" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
@@ -1483,29 +1483,29 @@
       <c r="C22">
         <v>18.754999999999999</v>
       </c>
-      <c r="D22" s="4">
-        <v>44448.729166666664</v>
-      </c>
-      <c r="E22" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>21</v>
+      </c>
+      <c r="F22" s="3">
+        <v>48</v>
+      </c>
+      <c r="G22" s="3">
+        <v>59</v>
       </c>
       <c r="H22">
         <v>10</v>
       </c>
-      <c r="I22" s="3">
-        <v>48</v>
-      </c>
-      <c r="J22" s="3">
-        <v>59</v>
-      </c>
-      <c r="K22">
-        <v>21</v>
+      <c r="I22" s="4">
+        <v>44448.729166666664</v>
+      </c>
+      <c r="J22" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
@@ -1518,20 +1518,20 @@
       <c r="C23">
         <v>8.8819999999999997</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" t="s">
-        <v>136</v>
-      </c>
-      <c r="F23" t="s">
-        <v>136</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23">
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
         <v>22</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="I23" s="4"/>
+      <c r="J23" t="s">
+        <v>136</v>
+      </c>
+      <c r="K23" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
@@ -1544,20 +1544,20 @@
       <c r="C24">
         <v>18.515999999999998</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" t="s">
-        <v>136</v>
-      </c>
-      <c r="F24" t="s">
-        <v>136</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24">
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
         <v>23</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="I24" s="4"/>
+      <c r="J24" t="s">
+        <v>136</v>
+      </c>
+      <c r="K24" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
@@ -1570,20 +1570,20 @@
       <c r="C25">
         <v>1.258</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" t="s">
-        <v>136</v>
-      </c>
-      <c r="F25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25">
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
         <v>24</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="I25" s="4"/>
+      <c r="J25" t="s">
+        <v>136</v>
+      </c>
+      <c r="K25" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
@@ -1596,29 +1596,29 @@
       <c r="C26">
         <v>2.6640000000000001</v>
       </c>
-      <c r="D26" s="4">
-        <v>44449.656944444447</v>
-      </c>
-      <c r="E26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>25</v>
+      </c>
+      <c r="F26" s="3">
+        <v>159</v>
+      </c>
+      <c r="G26" s="3">
+        <v>37</v>
       </c>
       <c r="H26">
         <v>2</v>
       </c>
-      <c r="I26" s="3">
-        <v>159</v>
-      </c>
-      <c r="J26" s="3">
-        <v>37</v>
-      </c>
-      <c r="K26">
-        <v>25</v>
+      <c r="I26" s="4">
+        <v>44449.656944444447</v>
+      </c>
+      <c r="J26" t="s">
+        <v>35</v>
+      </c>
+      <c r="K26" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
@@ -1631,29 +1631,29 @@
       <c r="C27">
         <v>2.6640000000000001</v>
       </c>
-      <c r="D27" s="4">
-        <v>44449.669444444444</v>
-      </c>
-      <c r="E27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>26</v>
+      </c>
+      <c r="F27" s="3">
+        <v>287</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
       </c>
       <c r="H27">
         <v>3</v>
       </c>
-      <c r="I27" s="3">
-        <v>287</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>26</v>
+      <c r="I27" s="4">
+        <v>44449.669444444444</v>
+      </c>
+      <c r="J27" t="s">
+        <v>37</v>
+      </c>
+      <c r="K27" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
@@ -1666,29 +1666,29 @@
       <c r="C28">
         <v>8.1739999999999995</v>
       </c>
-      <c r="D28" s="4">
-        <v>44449.681944444441</v>
-      </c>
-      <c r="E28" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" t="s">
-        <v>40</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>27</v>
+      </c>
+      <c r="F28" s="3">
+        <v>67</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
       </c>
       <c r="H28">
         <v>11</v>
       </c>
-      <c r="I28" s="3">
-        <v>67</v>
-      </c>
-      <c r="J28" s="3">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>27</v>
+      <c r="I28" s="4">
+        <v>44449.681944444441</v>
+      </c>
+      <c r="J28" t="s">
+        <v>39</v>
+      </c>
+      <c r="K28" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
@@ -1701,29 +1701,29 @@
       <c r="C29">
         <v>6.6750000000000007</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>28</v>
+      </c>
+      <c r="F29" s="3">
+        <v>75</v>
+      </c>
+      <c r="G29" s="3">
+        <v>7</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" s="4">
         <v>44449.73541666667</v>
       </c>
-      <c r="E29" t="s">
+      <c r="J29" t="s">
         <v>41</v>
       </c>
-      <c r="F29" t="s">
+      <c r="K29" t="s">
         <v>42</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29" s="3">
-        <v>75</v>
-      </c>
-      <c r="J29" s="3">
-        <v>7</v>
-      </c>
-      <c r="K29">
-        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
@@ -1736,29 +1736,29 @@
       <c r="C30">
         <v>5.367</v>
       </c>
-      <c r="D30" s="4">
-        <v>44450.261805555558</v>
-      </c>
-      <c r="E30" t="s">
-        <v>43</v>
-      </c>
-      <c r="F30" t="s">
-        <v>44</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>29</v>
+      </c>
+      <c r="F30" s="3">
+        <v>87</v>
+      </c>
+      <c r="G30" s="3">
+        <v>63</v>
       </c>
       <c r="H30">
         <v>6</v>
       </c>
-      <c r="I30" s="3">
-        <v>87</v>
-      </c>
-      <c r="J30" s="3">
-        <v>63</v>
-      </c>
-      <c r="K30">
-        <v>29</v>
+      <c r="I30" s="4">
+        <v>44450.261805555558</v>
+      </c>
+      <c r="J30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K30" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
@@ -1771,29 +1771,29 @@
       <c r="C31">
         <v>12.752000000000001</v>
       </c>
-      <c r="D31" s="4">
-        <v>44450.308333333334</v>
-      </c>
-      <c r="E31" t="s">
-        <v>45</v>
-      </c>
-      <c r="F31" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>30</v>
+      </c>
+      <c r="F31" s="3">
+        <v>99</v>
+      </c>
+      <c r="G31" s="3">
+        <v>90</v>
       </c>
       <c r="H31">
         <v>2</v>
       </c>
-      <c r="I31" s="3">
-        <v>99</v>
-      </c>
-      <c r="J31" s="3">
-        <v>90</v>
-      </c>
-      <c r="K31">
-        <v>30</v>
+      <c r="I31" s="4">
+        <v>44450.308333333334</v>
+      </c>
+      <c r="J31" t="s">
+        <v>45</v>
+      </c>
+      <c r="K31" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
@@ -1806,29 +1806,29 @@
       <c r="C32">
         <v>12.752000000000001</v>
       </c>
-      <c r="D32" s="4">
-        <v>44450.38958333333</v>
-      </c>
-      <c r="E32" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32" t="s">
-        <v>48</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>31</v>
+      </c>
+      <c r="F32" s="3">
+        <v>7</v>
+      </c>
+      <c r="G32" s="3">
+        <v>143</v>
       </c>
       <c r="H32">
         <v>2</v>
       </c>
-      <c r="I32" s="3">
-        <v>7</v>
-      </c>
-      <c r="J32" s="3">
-        <v>143</v>
-      </c>
-      <c r="K32">
-        <v>31</v>
+      <c r="I32" s="4">
+        <v>44450.38958333333</v>
+      </c>
+      <c r="J32" t="s">
+        <v>47</v>
+      </c>
+      <c r="K32" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
@@ -1841,20 +1841,20 @@
       <c r="C33">
         <v>1.8759999999999999</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="E33" t="s">
-        <v>136</v>
-      </c>
-      <c r="F33" t="s">
-        <v>136</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33">
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
         <v>32</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="I33" s="4"/>
+      <c r="J33" t="s">
+        <v>136</v>
+      </c>
+      <c r="K33" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
@@ -1867,20 +1867,20 @@
       <c r="C34">
         <v>2.0270000000000001</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="E34" t="s">
-        <v>136</v>
-      </c>
-      <c r="F34" t="s">
-        <v>136</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34">
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
         <v>33</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="I34" s="4"/>
+      <c r="J34" t="s">
+        <v>136</v>
+      </c>
+      <c r="K34" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
@@ -1893,20 +1893,20 @@
       <c r="C35">
         <v>3.93</v>
       </c>
-      <c r="D35" s="4"/>
-      <c r="E35" t="s">
-        <v>136</v>
-      </c>
-      <c r="F35" t="s">
-        <v>136</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35">
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
         <v>34</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="I35" s="4"/>
+      <c r="J35" t="s">
+        <v>136</v>
+      </c>
+      <c r="K35" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
@@ -1919,20 +1919,20 @@
       <c r="C36">
         <v>1.891</v>
       </c>
-      <c r="D36" s="4"/>
-      <c r="E36" t="s">
-        <v>136</v>
-      </c>
-      <c r="F36" t="s">
-        <v>136</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36">
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
         <v>35</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="I36" s="4"/>
+      <c r="J36" t="s">
+        <v>136</v>
+      </c>
+      <c r="K36" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
@@ -1945,29 +1945,29 @@
       <c r="C37">
         <v>18.754999999999999</v>
       </c>
-      <c r="D37" s="4">
-        <v>44451.274305555555</v>
-      </c>
-      <c r="E37" t="s">
-        <v>49</v>
-      </c>
-      <c r="F37" t="s">
-        <v>50</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>36</v>
+      </c>
+      <c r="F37" s="3">
+        <v>140</v>
+      </c>
+      <c r="G37" s="3">
+        <v>26</v>
       </c>
       <c r="H37">
         <v>3</v>
       </c>
-      <c r="I37" s="3">
-        <v>140</v>
-      </c>
-      <c r="J37" s="3">
-        <v>26</v>
-      </c>
-      <c r="K37">
-        <v>36</v>
+      <c r="I37" s="4">
+        <v>44451.274305555555</v>
+      </c>
+      <c r="J37" t="s">
+        <v>49</v>
+      </c>
+      <c r="K37" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
@@ -1980,29 +1980,29 @@
       <c r="C38">
         <v>18.754999999999999</v>
       </c>
-      <c r="D38" s="4">
-        <v>44451.344444444447</v>
-      </c>
-      <c r="E38" t="s">
-        <v>51</v>
-      </c>
-      <c r="F38" t="s">
-        <v>52</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>37</v>
+      </c>
+      <c r="F38" s="3">
+        <v>13</v>
+      </c>
+      <c r="G38" s="3">
+        <v>47</v>
       </c>
       <c r="H38">
         <v>4</v>
       </c>
-      <c r="I38" s="3">
-        <v>13</v>
-      </c>
-      <c r="J38" s="3">
-        <v>47</v>
-      </c>
-      <c r="K38">
-        <v>37</v>
+      <c r="I38" s="4">
+        <v>44451.344444444447</v>
+      </c>
+      <c r="J38" t="s">
+        <v>51</v>
+      </c>
+      <c r="K38" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
@@ -2015,29 +2015,29 @@
       <c r="C39">
         <v>18.754999999999999</v>
       </c>
-      <c r="D39" s="4">
-        <v>44451.351388888892</v>
-      </c>
-      <c r="E39" t="s">
-        <v>53</v>
-      </c>
-      <c r="F39" t="s">
-        <v>54</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>38</v>
+      </c>
+      <c r="F39" s="3">
+        <v>96</v>
+      </c>
+      <c r="G39" s="3">
+        <v>15</v>
       </c>
       <c r="H39">
         <v>4</v>
       </c>
-      <c r="I39" s="3">
-        <v>96</v>
-      </c>
-      <c r="J39" s="3">
-        <v>15</v>
-      </c>
-      <c r="K39">
-        <v>38</v>
+      <c r="I39" s="4">
+        <v>44451.351388888892</v>
+      </c>
+      <c r="J39" t="s">
+        <v>53</v>
+      </c>
+      <c r="K39" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
@@ -2050,29 +2050,29 @@
       <c r="C40">
         <v>18.754999999999999</v>
       </c>
-      <c r="D40" s="4">
-        <v>44451.361111111109</v>
-      </c>
-      <c r="E40" t="s">
-        <v>55</v>
-      </c>
-      <c r="F40" t="s">
-        <v>56</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>39</v>
+      </c>
+      <c r="F40" s="3">
+        <v>43</v>
+      </c>
+      <c r="G40" s="3">
+        <v>-2</v>
       </c>
       <c r="H40">
         <v>8</v>
       </c>
-      <c r="I40" s="3">
-        <v>43</v>
-      </c>
-      <c r="J40" s="3">
-        <v>-2</v>
-      </c>
-      <c r="K40">
-        <v>39</v>
+      <c r="I40" s="4">
+        <v>44451.361111111109</v>
+      </c>
+      <c r="J40" t="s">
+        <v>55</v>
+      </c>
+      <c r="K40" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
@@ -2085,29 +2085,29 @@
       <c r="C41">
         <v>18.754999999999999</v>
       </c>
-      <c r="D41" s="4">
-        <v>44451.37777777778</v>
-      </c>
-      <c r="E41" t="s">
-        <v>57</v>
-      </c>
-      <c r="F41" t="s">
-        <v>58</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>40</v>
+      </c>
+      <c r="F41" s="3">
+        <v>37</v>
+      </c>
+      <c r="G41" s="3">
+        <v>6</v>
       </c>
       <c r="H41">
         <v>2</v>
       </c>
-      <c r="I41" s="3">
-        <v>37</v>
-      </c>
-      <c r="J41" s="3">
-        <v>6</v>
-      </c>
-      <c r="K41">
-        <v>40</v>
+      <c r="I41" s="4">
+        <v>44451.37777777778</v>
+      </c>
+      <c r="J41" t="s">
+        <v>57</v>
+      </c>
+      <c r="K41" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
@@ -2120,29 +2120,29 @@
       <c r="C42">
         <v>18.754999999999999</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>41</v>
+      </c>
+      <c r="F42" s="3">
+        <v>101</v>
+      </c>
+      <c r="G42" s="3">
+        <v>48</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42" s="4">
         <v>44451.383333333331</v>
       </c>
-      <c r="E42" t="s">
+      <c r="J42" t="s">
         <v>59</v>
       </c>
-      <c r="F42" t="s">
+      <c r="K42" t="s">
         <v>60</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="I42" s="3">
-        <v>101</v>
-      </c>
-      <c r="J42" s="3">
-        <v>48</v>
-      </c>
-      <c r="K42">
-        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
@@ -2155,29 +2155,29 @@
       <c r="C43">
         <v>5.8449999999999998</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>42</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3">
+        <v>17</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43" s="4">
         <v>44451.663888888892</v>
       </c>
-      <c r="E43" t="s">
+      <c r="J43" t="s">
         <v>61</v>
       </c>
-      <c r="F43" t="s">
+      <c r="K43" t="s">
         <v>62</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-      <c r="I43" s="3">
-        <v>1</v>
-      </c>
-      <c r="J43" s="3">
-        <v>17</v>
-      </c>
-      <c r="K43">
-        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
@@ -2190,29 +2190,29 @@
       <c r="C44">
         <v>5.8449999999999998</v>
       </c>
-      <c r="D44" s="4">
-        <v>44451.666666666664</v>
-      </c>
-      <c r="E44" t="s">
-        <v>63</v>
-      </c>
-      <c r="F44" t="s">
-        <v>64</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>43</v>
+      </c>
+      <c r="F44" s="3">
+        <v>39</v>
+      </c>
+      <c r="G44" s="3">
+        <v>-4</v>
       </c>
       <c r="H44">
         <v>7</v>
       </c>
-      <c r="I44" s="3">
-        <v>39</v>
-      </c>
-      <c r="J44" s="3">
-        <v>-4</v>
-      </c>
-      <c r="K44">
-        <v>43</v>
+      <c r="I44" s="4">
+        <v>44451.666666666664</v>
+      </c>
+      <c r="J44" t="s">
+        <v>63</v>
+      </c>
+      <c r="K44" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
@@ -2225,29 +2225,29 @@
       <c r="C45">
         <v>5.8449999999999998</v>
       </c>
-      <c r="D45" s="4">
-        <v>44451.694444444445</v>
-      </c>
-      <c r="E45" t="s">
-        <v>65</v>
-      </c>
-      <c r="F45" t="s">
-        <v>66</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>44</v>
+      </c>
+      <c r="F45" s="3">
+        <v>20</v>
+      </c>
+      <c r="G45" s="3">
+        <v>120</v>
       </c>
       <c r="H45">
         <v>10</v>
       </c>
-      <c r="I45" s="3">
-        <v>20</v>
-      </c>
-      <c r="J45" s="3">
-        <v>120</v>
-      </c>
-      <c r="K45">
-        <v>44</v>
+      <c r="I45" s="4">
+        <v>44451.694444444445</v>
+      </c>
+      <c r="J45" t="s">
+        <v>65</v>
+      </c>
+      <c r="K45" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
@@ -2260,29 +2260,29 @@
       <c r="C46">
         <v>4.0010000000000003</v>
       </c>
-      <c r="D46" s="4">
-        <v>44451.707638888889</v>
-      </c>
-      <c r="E46" t="s">
-        <v>67</v>
-      </c>
-      <c r="F46" t="s">
-        <v>68</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>45</v>
+      </c>
+      <c r="F46" s="3">
+        <v>56</v>
+      </c>
+      <c r="G46" s="3">
+        <v>156</v>
       </c>
       <c r="H46">
         <v>2</v>
       </c>
-      <c r="I46" s="3">
-        <v>56</v>
-      </c>
-      <c r="J46" s="3">
-        <v>156</v>
-      </c>
-      <c r="K46">
-        <v>45</v>
+      <c r="I46" s="4">
+        <v>44451.707638888889</v>
+      </c>
+      <c r="J46" t="s">
+        <v>67</v>
+      </c>
+      <c r="K46" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
@@ -2295,29 +2295,29 @@
       <c r="C47">
         <v>4.0010000000000003</v>
       </c>
-      <c r="D47" s="4">
-        <v>44451.720138888886</v>
-      </c>
-      <c r="E47" t="s">
-        <v>69</v>
-      </c>
-      <c r="F47" t="s">
-        <v>70</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>46</v>
+      </c>
+      <c r="F47" s="3">
+        <v>117</v>
+      </c>
+      <c r="G47" s="3">
+        <v>-46</v>
       </c>
       <c r="H47">
         <v>5</v>
       </c>
-      <c r="I47" s="3">
-        <v>117</v>
-      </c>
-      <c r="J47" s="3">
-        <v>-46</v>
-      </c>
-      <c r="K47">
-        <v>46</v>
+      <c r="I47" s="4">
+        <v>44451.720138888886</v>
+      </c>
+      <c r="J47" t="s">
+        <v>69</v>
+      </c>
+      <c r="K47" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
@@ -2330,29 +2330,29 @@
       <c r="C48">
         <v>4.0010000000000003</v>
       </c>
-      <c r="D48" s="4">
-        <v>44451.727083333331</v>
-      </c>
-      <c r="E48" t="s">
-        <v>71</v>
-      </c>
-      <c r="F48" t="s">
-        <v>72</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>47</v>
+      </c>
+      <c r="F48" s="3">
+        <v>138</v>
+      </c>
+      <c r="G48" s="3">
+        <v>66</v>
       </c>
       <c r="H48">
         <v>3</v>
       </c>
-      <c r="I48" s="3">
-        <v>138</v>
-      </c>
-      <c r="J48" s="3">
-        <v>66</v>
-      </c>
-      <c r="K48">
-        <v>47</v>
+      <c r="I48" s="4">
+        <v>44451.727083333331</v>
+      </c>
+      <c r="J48" t="s">
+        <v>71</v>
+      </c>
+      <c r="K48" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
@@ -2365,20 +2365,20 @@
       <c r="C49">
         <v>8.8819999999999997</v>
       </c>
-      <c r="D49" s="4"/>
-      <c r="E49" t="s">
-        <v>136</v>
-      </c>
-      <c r="F49" t="s">
-        <v>136</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49">
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
         <v>48</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="I49" s="4"/>
+      <c r="J49" t="s">
+        <v>136</v>
+      </c>
+      <c r="K49" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
@@ -2391,29 +2391,29 @@
       <c r="C50">
         <v>18.515999999999998</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>49</v>
+      </c>
+      <c r="F50" s="3">
+        <v>26</v>
+      </c>
+      <c r="G50" s="3">
+        <v>69</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50" s="4">
         <v>44452.345138888886</v>
       </c>
-      <c r="E50" t="s">
+      <c r="J50" t="s">
         <v>73</v>
       </c>
-      <c r="F50" t="s">
+      <c r="K50" t="s">
         <v>74</v>
-      </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-      <c r="H50">
-        <v>1</v>
-      </c>
-      <c r="I50" s="3">
-        <v>26</v>
-      </c>
-      <c r="J50" s="3">
-        <v>69</v>
-      </c>
-      <c r="K50">
-        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
@@ -2426,20 +2426,20 @@
       <c r="C51">
         <v>3.4350000000000001</v>
       </c>
-      <c r="D51" s="4"/>
-      <c r="E51" t="s">
-        <v>136</v>
-      </c>
-      <c r="F51" t="s">
-        <v>136</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
         <v>50</v>
+      </c>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="I51" s="4"/>
+      <c r="J51" t="s">
+        <v>136</v>
+      </c>
+      <c r="K51" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
@@ -2452,29 +2452,29 @@
       <c r="C52">
         <v>8.1739999999999995</v>
       </c>
-      <c r="D52" s="4">
-        <v>44452.654861111114</v>
-      </c>
-      <c r="E52" t="s">
-        <v>75</v>
-      </c>
-      <c r="F52" t="s">
-        <v>76</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>51</v>
+      </c>
+      <c r="F52" s="3">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3">
+        <v>138</v>
       </c>
       <c r="H52">
         <v>9</v>
       </c>
-      <c r="I52" s="3">
-        <v>4</v>
-      </c>
-      <c r="J52" s="3">
-        <v>138</v>
-      </c>
-      <c r="K52">
-        <v>51</v>
+      <c r="I52" s="4">
+        <v>44452.654861111114</v>
+      </c>
+      <c r="J52" t="s">
+        <v>75</v>
+      </c>
+      <c r="K52" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
@@ -2487,29 +2487,29 @@
       <c r="C53">
         <v>9.6679999999999993</v>
       </c>
-      <c r="D53" s="4">
-        <v>44452.698611111111</v>
-      </c>
-      <c r="E53" t="s">
-        <v>77</v>
-      </c>
-      <c r="F53" t="s">
-        <v>78</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>52</v>
+      </c>
+      <c r="F53" s="3">
+        <v>199</v>
+      </c>
+      <c r="G53" s="3">
+        <v>63</v>
       </c>
       <c r="H53">
         <v>4</v>
       </c>
-      <c r="I53" s="3">
-        <v>199</v>
-      </c>
-      <c r="J53" s="3">
-        <v>63</v>
-      </c>
-      <c r="K53">
-        <v>52</v>
+      <c r="I53" s="4">
+        <v>44452.698611111111</v>
+      </c>
+      <c r="J53" t="s">
+        <v>77</v>
+      </c>
+      <c r="K53" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
@@ -2522,29 +2522,29 @@
       <c r="C54">
         <v>9.6679999999999993</v>
       </c>
-      <c r="D54" s="4">
-        <v>44452.727083333331</v>
-      </c>
-      <c r="E54" t="s">
-        <v>79</v>
-      </c>
-      <c r="F54" t="s">
-        <v>80</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>53</v>
+      </c>
+      <c r="F54" s="3">
+        <v>7</v>
+      </c>
+      <c r="G54" s="3">
+        <v>26</v>
       </c>
       <c r="H54">
         <v>42</v>
       </c>
-      <c r="I54" s="3">
-        <v>7</v>
-      </c>
-      <c r="J54" s="3">
-        <v>26</v>
-      </c>
-      <c r="K54">
-        <v>53</v>
+      <c r="I54" s="4">
+        <v>44452.727083333331</v>
+      </c>
+      <c r="J54" t="s">
+        <v>79</v>
+      </c>
+      <c r="K54" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
@@ -2557,29 +2557,29 @@
       <c r="C55">
         <v>9.6679999999999993</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>54</v>
+      </c>
+      <c r="F55" s="3">
+        <v>37</v>
+      </c>
+      <c r="G55" s="3">
+        <v>133</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55" s="4">
         <v>44452.730555555558</v>
       </c>
-      <c r="E55" t="s">
+      <c r="J55" t="s">
         <v>81</v>
       </c>
-      <c r="F55" t="s">
+      <c r="K55" t="s">
         <v>82</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
-      <c r="I55" s="3">
-        <v>37</v>
-      </c>
-      <c r="J55" s="3">
-        <v>133</v>
-      </c>
-      <c r="K55">
-        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
@@ -2592,29 +2592,29 @@
       <c r="C56">
         <v>9.6679999999999993</v>
       </c>
-      <c r="D56" s="4">
-        <v>44452.736111111109</v>
-      </c>
-      <c r="E56" t="s">
-        <v>83</v>
-      </c>
-      <c r="F56" t="s">
-        <v>84</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>55</v>
+      </c>
+      <c r="F56" s="3">
+        <v>35</v>
+      </c>
+      <c r="G56" s="3">
+        <v>93</v>
       </c>
       <c r="H56">
         <v>2</v>
       </c>
-      <c r="I56" s="3">
-        <v>35</v>
-      </c>
-      <c r="J56" s="3">
-        <v>93</v>
-      </c>
-      <c r="K56">
-        <v>55</v>
+      <c r="I56" s="4">
+        <v>44452.736111111109</v>
+      </c>
+      <c r="J56" t="s">
+        <v>83</v>
+      </c>
+      <c r="K56" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
@@ -2627,29 +2627,29 @@
       <c r="C57">
         <v>24.617999999999999</v>
       </c>
-      <c r="D57" s="4">
-        <v>44453.690972222219</v>
-      </c>
-      <c r="E57" t="s">
-        <v>85</v>
-      </c>
-      <c r="F57" t="s">
-        <v>86</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>56</v>
+      </c>
+      <c r="F57" s="3">
+        <v>75</v>
+      </c>
+      <c r="G57" s="3">
+        <v>124</v>
       </c>
       <c r="H57">
         <v>20</v>
       </c>
-      <c r="I57" s="3">
-        <v>75</v>
-      </c>
-      <c r="J57" s="3">
-        <v>124</v>
-      </c>
-      <c r="K57">
-        <v>56</v>
+      <c r="I57" s="4">
+        <v>44453.690972222219</v>
+      </c>
+      <c r="J57" t="s">
+        <v>85</v>
+      </c>
+      <c r="K57" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
@@ -2662,29 +2662,29 @@
       <c r="C58">
         <v>16.849</v>
       </c>
-      <c r="D58" s="4">
-        <v>44454.3125</v>
-      </c>
-      <c r="E58" t="s">
-        <v>87</v>
-      </c>
-      <c r="F58" t="s">
-        <v>88</v>
-      </c>
-      <c r="G58">
-        <v>1</v>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>57</v>
+      </c>
+      <c r="F58" s="3">
+        <v>22</v>
+      </c>
+      <c r="G58" s="3">
+        <v>56</v>
       </c>
       <c r="H58">
         <v>5</v>
       </c>
-      <c r="I58" s="3">
-        <v>22</v>
-      </c>
-      <c r="J58" s="3">
-        <v>56</v>
-      </c>
-      <c r="K58">
-        <v>57</v>
+      <c r="I58" s="4">
+        <v>44454.3125</v>
+      </c>
+      <c r="J58" t="s">
+        <v>87</v>
+      </c>
+      <c r="K58" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
@@ -2697,20 +2697,20 @@
       <c r="C59">
         <v>7.1079999999999997</v>
       </c>
-      <c r="D59" s="4"/>
-      <c r="E59" t="s">
-        <v>136</v>
-      </c>
-      <c r="F59" t="s">
-        <v>136</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59">
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
         <v>58</v>
+      </c>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="I59" s="4"/>
+      <c r="J59" t="s">
+        <v>136</v>
+      </c>
+      <c r="K59" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
@@ -2723,20 +2723,20 @@
       <c r="C60">
         <v>10.303000000000001</v>
       </c>
-      <c r="D60" s="4"/>
-      <c r="E60" t="s">
-        <v>136</v>
-      </c>
-      <c r="F60" t="s">
-        <v>136</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60">
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
         <v>59</v>
+      </c>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="I60" s="4"/>
+      <c r="J60" t="s">
+        <v>136</v>
+      </c>
+      <c r="K60" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
@@ -2749,20 +2749,20 @@
       <c r="C61">
         <v>12.223000000000001</v>
       </c>
-      <c r="D61" s="4"/>
-      <c r="E61" t="s">
-        <v>136</v>
-      </c>
-      <c r="F61" t="s">
-        <v>136</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61">
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
         <v>60</v>
+      </c>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="I61" s="4"/>
+      <c r="J61" t="s">
+        <v>136</v>
+      </c>
+      <c r="K61" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
@@ -2775,20 +2775,20 @@
       <c r="C62">
         <v>7.1870000000000003</v>
       </c>
-      <c r="D62" s="4"/>
-      <c r="E62" t="s">
-        <v>136</v>
-      </c>
-      <c r="F62" t="s">
-        <v>136</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62">
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
         <v>61</v>
+      </c>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="I62" s="4"/>
+      <c r="J62" t="s">
+        <v>136</v>
+      </c>
+      <c r="K62" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
@@ -2801,20 +2801,20 @@
       <c r="C63">
         <v>8.2080000000000002</v>
       </c>
-      <c r="D63" s="4"/>
-      <c r="E63" t="s">
-        <v>136</v>
-      </c>
-      <c r="F63" t="s">
-        <v>136</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63">
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
         <v>62</v>
+      </c>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="I63" s="4"/>
+      <c r="J63" t="s">
+        <v>136</v>
+      </c>
+      <c r="K63" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
@@ -2827,20 +2827,20 @@
       <c r="C64">
         <v>6.3090000000000002</v>
       </c>
-      <c r="D64" s="4"/>
-      <c r="E64" t="s">
-        <v>136</v>
-      </c>
-      <c r="F64" t="s">
-        <v>136</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64">
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
         <v>63</v>
+      </c>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="I64" s="4"/>
+      <c r="J64" t="s">
+        <v>136</v>
+      </c>
+      <c r="K64" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
@@ -2853,20 +2853,20 @@
       <c r="C65">
         <v>2.7559999999999998</v>
       </c>
-      <c r="D65" s="4"/>
-      <c r="E65" t="s">
-        <v>136</v>
-      </c>
-      <c r="F65" t="s">
-        <v>136</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65">
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
         <v>64</v>
+      </c>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="I65" s="4"/>
+      <c r="J65" t="s">
+        <v>136</v>
+      </c>
+      <c r="K65" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
@@ -2879,20 +2879,20 @@
       <c r="C66">
         <v>7.1079999999999997</v>
       </c>
-      <c r="D66" s="4"/>
-      <c r="E66" t="s">
-        <v>136</v>
-      </c>
-      <c r="F66" t="s">
-        <v>136</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66">
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
         <v>65</v>
+      </c>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="I66" s="4"/>
+      <c r="J66" t="s">
+        <v>136</v>
+      </c>
+      <c r="K66" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
@@ -2905,20 +2905,20 @@
       <c r="C67">
         <v>7.0330000000000004</v>
       </c>
-      <c r="D67" s="4"/>
-      <c r="E67" t="s">
-        <v>136</v>
-      </c>
-      <c r="F67" t="s">
-        <v>136</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67">
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
         <v>66</v>
+      </c>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="I67" s="4"/>
+      <c r="J67" t="s">
+        <v>136</v>
+      </c>
+      <c r="K67" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
@@ -2931,29 +2931,29 @@
       <c r="C68">
         <v>10.269</v>
       </c>
-      <c r="D68" s="4">
-        <v>44458.302777777775</v>
-      </c>
-      <c r="E68" t="s">
-        <v>89</v>
-      </c>
-      <c r="F68" t="s">
-        <v>90</v>
-      </c>
-      <c r="G68">
-        <v>1</v>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>67</v>
+      </c>
+      <c r="F68" s="3">
+        <v>74</v>
+      </c>
+      <c r="G68" s="3">
+        <v>-2</v>
       </c>
       <c r="H68">
         <v>7</v>
       </c>
-      <c r="I68" s="3">
-        <v>74</v>
-      </c>
-      <c r="J68" s="3">
-        <v>-2</v>
-      </c>
-      <c r="K68">
-        <v>67</v>
+      <c r="I68" s="4">
+        <v>44458.302777777775</v>
+      </c>
+      <c r="J68" t="s">
+        <v>89</v>
+      </c>
+      <c r="K68" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
@@ -2966,20 +2966,20 @@
       <c r="C69">
         <v>3.93</v>
       </c>
-      <c r="D69" s="4"/>
-      <c r="E69" t="s">
-        <v>136</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69">
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
         <v>68</v>
+      </c>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="I69" s="4"/>
+      <c r="J69" t="s">
+        <v>136</v>
+      </c>
+      <c r="K69" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
@@ -2992,20 +2992,20 @@
       <c r="C70">
         <v>4.5789999999999997</v>
       </c>
-      <c r="D70" s="4"/>
-      <c r="E70" t="s">
-        <v>136</v>
-      </c>
-      <c r="F70" t="s">
-        <v>136</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70">
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
         <v>69</v>
+      </c>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="I70" s="4"/>
+      <c r="J70" t="s">
+        <v>136</v>
+      </c>
+      <c r="K70" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
@@ -3018,20 +3018,20 @@
       <c r="C71">
         <v>6.758</v>
       </c>
-      <c r="D71" s="4"/>
-      <c r="E71" t="s">
-        <v>136</v>
-      </c>
-      <c r="F71" t="s">
-        <v>136</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-      <c r="K71">
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
         <v>70</v>
+      </c>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="I71" s="4"/>
+      <c r="J71" t="s">
+        <v>136</v>
+      </c>
+      <c r="K71" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
@@ -3044,29 +3044,29 @@
       <c r="C72">
         <v>18.837</v>
       </c>
-      <c r="D72" s="4">
-        <v>44459.332638888889</v>
-      </c>
-      <c r="E72" t="s">
-        <v>91</v>
-      </c>
-      <c r="F72" t="s">
-        <v>92</v>
-      </c>
-      <c r="G72">
-        <v>1</v>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>71</v>
+      </c>
+      <c r="F72" s="3">
+        <v>85</v>
+      </c>
+      <c r="G72" s="3">
+        <v>116</v>
       </c>
       <c r="H72">
         <v>10</v>
       </c>
-      <c r="I72" s="3">
-        <v>85</v>
-      </c>
-      <c r="J72" s="3">
-        <v>116</v>
-      </c>
-      <c r="K72">
-        <v>71</v>
+      <c r="I72" s="4">
+        <v>44459.332638888889</v>
+      </c>
+      <c r="J72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K72" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
@@ -3079,29 +3079,29 @@
       <c r="C73">
         <v>9.4469999999999992</v>
       </c>
-      <c r="D73" s="4">
-        <v>44459.677083333336</v>
-      </c>
-      <c r="E73" t="s">
-        <v>93</v>
-      </c>
-      <c r="F73" t="s">
-        <v>94</v>
-      </c>
-      <c r="G73">
-        <v>1</v>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>72</v>
+      </c>
+      <c r="F73" s="3">
+        <v>46</v>
+      </c>
+      <c r="G73" s="3">
+        <v>72</v>
       </c>
       <c r="H73">
         <v>4</v>
       </c>
-      <c r="I73" s="3">
-        <v>46</v>
-      </c>
-      <c r="J73" s="3">
-        <v>72</v>
-      </c>
-      <c r="K73">
-        <v>72</v>
+      <c r="I73" s="4">
+        <v>44459.677083333336</v>
+      </c>
+      <c r="J73" t="s">
+        <v>93</v>
+      </c>
+      <c r="K73" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
@@ -3114,29 +3114,29 @@
       <c r="C74">
         <v>9.4469999999999992</v>
       </c>
-      <c r="D74" s="4">
-        <v>44459.680555555555</v>
-      </c>
-      <c r="E74" t="s">
-        <v>95</v>
-      </c>
-      <c r="F74" t="s">
-        <v>96</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>73</v>
+      </c>
+      <c r="F74" s="3">
+        <v>11</v>
+      </c>
+      <c r="G74" s="3">
+        <v>86</v>
       </c>
       <c r="H74">
         <v>2</v>
       </c>
-      <c r="I74" s="3">
-        <v>11</v>
-      </c>
-      <c r="J74" s="3">
-        <v>86</v>
-      </c>
-      <c r="K74">
-        <v>73</v>
+      <c r="I74" s="4">
+        <v>44459.680555555555</v>
+      </c>
+      <c r="J74" t="s">
+        <v>95</v>
+      </c>
+      <c r="K74" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.35">
@@ -3149,29 +3149,29 @@
       <c r="C75">
         <v>9.4469999999999992</v>
       </c>
-      <c r="D75" s="4">
-        <v>44459.702777777777</v>
-      </c>
-      <c r="E75" t="s">
-        <v>97</v>
-      </c>
-      <c r="F75" t="s">
-        <v>98</v>
-      </c>
-      <c r="G75">
-        <v>1</v>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>74</v>
+      </c>
+      <c r="F75" s="3">
+        <v>19</v>
+      </c>
+      <c r="G75" s="3">
+        <v>0</v>
       </c>
       <c r="H75">
         <v>22</v>
       </c>
-      <c r="I75" s="3">
-        <v>19</v>
-      </c>
-      <c r="J75" s="3">
-        <v>0</v>
-      </c>
-      <c r="K75">
-        <v>74</v>
+      <c r="I75" s="4">
+        <v>44459.702777777777</v>
+      </c>
+      <c r="J75" t="s">
+        <v>97</v>
+      </c>
+      <c r="K75" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
@@ -3184,29 +3184,29 @@
       <c r="C76">
         <v>18.754999999999999</v>
       </c>
-      <c r="D76" s="4">
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>75</v>
+      </c>
+      <c r="F76" s="3">
+        <v>15</v>
+      </c>
+      <c r="G76" s="3">
+        <v>46</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76" s="4">
         <v>44460.304861111108</v>
       </c>
-      <c r="E76" t="s">
+      <c r="J76" t="s">
         <v>99</v>
       </c>
-      <c r="F76" t="s">
+      <c r="K76" t="s">
         <v>100</v>
-      </c>
-      <c r="G76">
-        <v>1</v>
-      </c>
-      <c r="H76">
-        <v>1</v>
-      </c>
-      <c r="I76" s="3">
-        <v>15</v>
-      </c>
-      <c r="J76" s="3">
-        <v>46</v>
-      </c>
-      <c r="K76">
-        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
@@ -3219,29 +3219,29 @@
       <c r="C77">
         <v>18.754999999999999</v>
       </c>
-      <c r="D77" s="4">
-        <v>44460.314583333333</v>
-      </c>
-      <c r="E77" t="s">
-        <v>101</v>
-      </c>
-      <c r="F77" t="s">
-        <v>102</v>
-      </c>
-      <c r="G77">
-        <v>1</v>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>76</v>
+      </c>
+      <c r="F77" s="3">
+        <v>79</v>
+      </c>
+      <c r="G77" s="3">
+        <v>85</v>
       </c>
       <c r="H77">
         <v>10</v>
       </c>
-      <c r="I77" s="3">
-        <v>79</v>
-      </c>
-      <c r="J77" s="3">
-        <v>85</v>
-      </c>
-      <c r="K77">
-        <v>76</v>
+      <c r="I77" s="4">
+        <v>44460.314583333333</v>
+      </c>
+      <c r="J77" t="s">
+        <v>101</v>
+      </c>
+      <c r="K77" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.35">
@@ -3254,29 +3254,29 @@
       <c r="C78">
         <v>18.754999999999999</v>
       </c>
-      <c r="D78" s="4">
-        <v>44460.321527777778</v>
-      </c>
-      <c r="E78" t="s">
-        <v>103</v>
-      </c>
-      <c r="F78" t="s">
-        <v>104</v>
-      </c>
-      <c r="G78">
-        <v>1</v>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>77</v>
+      </c>
+      <c r="F78" s="3">
+        <v>25</v>
+      </c>
+      <c r="G78" s="3">
+        <v>90</v>
       </c>
       <c r="H78">
         <v>15</v>
       </c>
-      <c r="I78" s="3">
-        <v>25</v>
-      </c>
-      <c r="J78" s="3">
-        <v>90</v>
-      </c>
-      <c r="K78">
-        <v>77</v>
+      <c r="I78" s="4">
+        <v>44460.321527777778</v>
+      </c>
+      <c r="J78" t="s">
+        <v>103</v>
+      </c>
+      <c r="K78" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.35">
@@ -3289,29 +3289,29 @@
       <c r="C79">
         <v>18.754999999999999</v>
       </c>
-      <c r="D79" s="4">
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>78</v>
+      </c>
+      <c r="F79" s="3">
+        <v>106</v>
+      </c>
+      <c r="G79" s="3">
+        <v>18</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79" s="4">
         <v>44460.322222222225</v>
       </c>
-      <c r="E79" t="s">
+      <c r="J79" t="s">
         <v>103</v>
       </c>
-      <c r="F79" t="s">
+      <c r="K79" t="s">
         <v>105</v>
-      </c>
-      <c r="G79">
-        <v>1</v>
-      </c>
-      <c r="H79">
-        <v>1</v>
-      </c>
-      <c r="I79" s="3">
-        <v>106</v>
-      </c>
-      <c r="J79" s="3">
-        <v>18</v>
-      </c>
-      <c r="K79">
-        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
@@ -3324,29 +3324,29 @@
       <c r="C80">
         <v>18.754999999999999</v>
       </c>
-      <c r="D80" s="4">
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>79</v>
+      </c>
+      <c r="F80" s="3">
+        <v>110</v>
+      </c>
+      <c r="G80" s="3">
+        <v>7</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80" s="4">
         <v>44460.352777777778</v>
       </c>
-      <c r="E80" t="s">
+      <c r="J80" t="s">
         <v>106</v>
       </c>
-      <c r="F80" t="s">
+      <c r="K80" t="s">
         <v>107</v>
-      </c>
-      <c r="G80">
-        <v>1</v>
-      </c>
-      <c r="H80">
-        <v>1</v>
-      </c>
-      <c r="I80" s="3">
-        <v>110</v>
-      </c>
-      <c r="J80" s="3">
-        <v>7</v>
-      </c>
-      <c r="K80">
-        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
@@ -3359,29 +3359,29 @@
       <c r="C81">
         <v>18.754999999999999</v>
       </c>
-      <c r="D81" s="4">
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>80</v>
+      </c>
+      <c r="F81" s="3">
+        <v>132</v>
+      </c>
+      <c r="G81" s="3">
+        <v>5</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81" s="4">
         <v>44460.365277777775</v>
       </c>
-      <c r="E81" t="s">
+      <c r="J81" t="s">
         <v>108</v>
       </c>
-      <c r="F81" t="s">
+      <c r="K81" t="s">
         <v>109</v>
-      </c>
-      <c r="G81">
-        <v>1</v>
-      </c>
-      <c r="H81">
-        <v>1</v>
-      </c>
-      <c r="I81" s="3">
-        <v>132</v>
-      </c>
-      <c r="J81" s="3">
-        <v>5</v>
-      </c>
-      <c r="K81">
-        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.35">
@@ -3394,29 +3394,29 @@
       <c r="C82">
         <v>18.754999999999999</v>
       </c>
-      <c r="D82" s="4">
-        <v>44460.371527777781</v>
-      </c>
-      <c r="E82" t="s">
-        <v>110</v>
-      </c>
-      <c r="F82" t="s">
-        <v>111</v>
-      </c>
-      <c r="G82">
-        <v>1</v>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>81</v>
+      </c>
+      <c r="F82" s="3">
+        <v>42</v>
+      </c>
+      <c r="G82" s="3">
+        <v>4</v>
       </c>
       <c r="H82">
         <v>6</v>
       </c>
-      <c r="I82" s="3">
-        <v>42</v>
-      </c>
-      <c r="J82" s="3">
-        <v>4</v>
-      </c>
-      <c r="K82">
-        <v>81</v>
+      <c r="I82" s="4">
+        <v>44460.371527777781</v>
+      </c>
+      <c r="J82" t="s">
+        <v>110</v>
+      </c>
+      <c r="K82" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.35">
@@ -3429,20 +3429,20 @@
       <c r="C83">
         <v>5.7439999999999998</v>
       </c>
-      <c r="D83" s="4"/>
-      <c r="E83" t="s">
-        <v>136</v>
-      </c>
-      <c r="F83" t="s">
-        <v>136</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="K83">
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
         <v>82</v>
+      </c>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="I83" s="4"/>
+      <c r="J83" t="s">
+        <v>136</v>
+      </c>
+      <c r="K83" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.35">
@@ -3455,29 +3455,29 @@
       <c r="C84">
         <v>10.269</v>
       </c>
-      <c r="D84" s="4">
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>83</v>
+      </c>
+      <c r="F84" s="3">
+        <v>141</v>
+      </c>
+      <c r="G84" s="3">
+        <v>5</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84" s="4">
         <v>44460.708333333336</v>
       </c>
-      <c r="E84" t="s">
+      <c r="J84" t="s">
         <v>112</v>
       </c>
-      <c r="F84" t="s">
+      <c r="K84" t="s">
         <v>113</v>
-      </c>
-      <c r="G84">
-        <v>1</v>
-      </c>
-      <c r="H84">
-        <v>1</v>
-      </c>
-      <c r="I84" s="3">
-        <v>141</v>
-      </c>
-      <c r="J84" s="3">
-        <v>5</v>
-      </c>
-      <c r="K84">
-        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.35">
@@ -3490,29 +3490,29 @@
       <c r="C85">
         <v>10.269</v>
       </c>
-      <c r="D85" s="4">
-        <v>44460.723611111112</v>
-      </c>
-      <c r="E85" t="s">
-        <v>114</v>
-      </c>
-      <c r="F85" t="s">
-        <v>115</v>
-      </c>
-      <c r="G85">
-        <v>1</v>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>84</v>
+      </c>
+      <c r="F85" s="3">
+        <v>65</v>
+      </c>
+      <c r="G85" s="3">
+        <v>-13</v>
       </c>
       <c r="H85">
         <v>7</v>
       </c>
-      <c r="I85" s="3">
-        <v>65</v>
-      </c>
-      <c r="J85" s="3">
-        <v>-13</v>
-      </c>
-      <c r="K85">
-        <v>84</v>
+      <c r="I85" s="4">
+        <v>44460.723611111112</v>
+      </c>
+      <c r="J85" t="s">
+        <v>114</v>
+      </c>
+      <c r="K85" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.35">
@@ -3525,29 +3525,29 @@
       <c r="C86">
         <v>10.269</v>
       </c>
-      <c r="D86" s="4">
-        <v>44460.731249999997</v>
-      </c>
-      <c r="E86" t="s">
-        <v>116</v>
-      </c>
-      <c r="F86" t="s">
-        <v>117</v>
-      </c>
-      <c r="G86">
-        <v>1</v>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>85</v>
+      </c>
+      <c r="F86" s="3">
+        <v>53</v>
+      </c>
+      <c r="G86" s="3">
+        <v>80</v>
       </c>
       <c r="H86">
         <v>8</v>
       </c>
-      <c r="I86" s="3">
-        <v>53</v>
-      </c>
-      <c r="J86" s="3">
-        <v>80</v>
-      </c>
-      <c r="K86">
-        <v>85</v>
+      <c r="I86" s="4">
+        <v>44460.731249999997</v>
+      </c>
+      <c r="J86" t="s">
+        <v>116</v>
+      </c>
+      <c r="K86" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
@@ -3560,20 +3560,20 @@
       <c r="C87">
         <v>13.045</v>
       </c>
-      <c r="D87" s="4"/>
-      <c r="E87" t="s">
-        <v>136</v>
-      </c>
-      <c r="F87" t="s">
-        <v>136</v>
-      </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
-      <c r="K87">
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
         <v>86</v>
+      </c>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="I87" s="4"/>
+      <c r="J87" t="s">
+        <v>136</v>
+      </c>
+      <c r="K87" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.35">
@@ -3586,20 +3586,20 @@
       <c r="C88">
         <v>18.515999999999998</v>
       </c>
-      <c r="D88" s="4"/>
-      <c r="E88" t="s">
-        <v>136</v>
-      </c>
-      <c r="F88" t="s">
-        <v>136</v>
-      </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
-      <c r="K88">
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
         <v>87</v>
+      </c>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="I88" s="4"/>
+      <c r="J88" t="s">
+        <v>136</v>
+      </c>
+      <c r="K88" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.35">
@@ -3612,29 +3612,29 @@
       <c r="C89">
         <v>3.4350000000000001</v>
       </c>
-      <c r="D89" s="4">
-        <v>44461.652083333334</v>
-      </c>
-      <c r="E89" t="s">
-        <v>118</v>
-      </c>
-      <c r="F89" t="s">
-        <v>119</v>
-      </c>
-      <c r="G89">
-        <v>1</v>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>88</v>
+      </c>
+      <c r="F89" s="3">
+        <v>12</v>
+      </c>
+      <c r="G89" s="3">
+        <v>179</v>
       </c>
       <c r="H89">
         <v>25</v>
       </c>
-      <c r="I89" s="3">
-        <v>12</v>
-      </c>
-      <c r="J89" s="3">
-        <v>179</v>
-      </c>
-      <c r="K89">
-        <v>88</v>
+      <c r="I89" s="4">
+        <v>44461.652083333334</v>
+      </c>
+      <c r="J89" t="s">
+        <v>118</v>
+      </c>
+      <c r="K89" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.35">
@@ -3647,29 +3647,29 @@
       <c r="C90">
         <v>3.4350000000000001</v>
       </c>
-      <c r="D90" s="4">
-        <v>44461.674305555556</v>
-      </c>
-      <c r="E90" t="s">
-        <v>120</v>
-      </c>
-      <c r="F90" t="s">
-        <v>121</v>
-      </c>
-      <c r="G90">
-        <v>1</v>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>89</v>
+      </c>
+      <c r="F90" s="3">
+        <v>240</v>
+      </c>
+      <c r="G90" s="3">
+        <v>467</v>
       </c>
       <c r="H90">
         <v>3</v>
       </c>
-      <c r="I90" s="3">
-        <v>240</v>
-      </c>
-      <c r="J90" s="3">
-        <v>467</v>
-      </c>
-      <c r="K90">
-        <v>89</v>
+      <c r="I90" s="4">
+        <v>44461.674305555556</v>
+      </c>
+      <c r="J90" t="s">
+        <v>120</v>
+      </c>
+      <c r="K90" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.35">
@@ -3682,29 +3682,29 @@
       <c r="C91">
         <v>3.4350000000000001</v>
       </c>
-      <c r="D91" s="4">
-        <v>44461.676388888889</v>
-      </c>
-      <c r="E91" t="s">
-        <v>122</v>
-      </c>
-      <c r="F91" t="s">
-        <v>121</v>
-      </c>
-      <c r="G91">
-        <v>1</v>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>90</v>
+      </c>
+      <c r="F91" s="3">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3">
+        <v>205</v>
       </c>
       <c r="H91">
         <v>27</v>
       </c>
-      <c r="I91" s="3">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3">
-        <v>205</v>
-      </c>
-      <c r="K91">
-        <v>90</v>
+      <c r="I91" s="4">
+        <v>44461.676388888889</v>
+      </c>
+      <c r="J91" t="s">
+        <v>122</v>
+      </c>
+      <c r="K91" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.35">
@@ -3717,29 +3717,29 @@
       <c r="C92">
         <v>8.1739999999999995</v>
       </c>
-      <c r="D92" s="4">
-        <v>44461.70416666667</v>
-      </c>
-      <c r="E92" t="s">
-        <v>123</v>
-      </c>
-      <c r="F92" t="s">
-        <v>124</v>
-      </c>
-      <c r="G92">
-        <v>1</v>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>91</v>
+      </c>
+      <c r="F92" s="3">
+        <v>1</v>
+      </c>
+      <c r="G92" s="3">
+        <v>108</v>
       </c>
       <c r="H92">
         <v>6</v>
       </c>
-      <c r="I92" s="3">
-        <v>1</v>
-      </c>
-      <c r="J92" s="3">
-        <v>108</v>
-      </c>
-      <c r="K92">
-        <v>91</v>
+      <c r="I92" s="4">
+        <v>44461.70416666667</v>
+      </c>
+      <c r="J92" t="s">
+        <v>123</v>
+      </c>
+      <c r="K92" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.35">
@@ -3752,20 +3752,20 @@
       <c r="C93">
         <v>3.93</v>
       </c>
-      <c r="D93" s="4"/>
-      <c r="E93" t="s">
-        <v>136</v>
-      </c>
-      <c r="F93" t="s">
-        <v>136</v>
-      </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-      <c r="I93" s="3"/>
-      <c r="J93" s="3"/>
-      <c r="K93">
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
         <v>92</v>
+      </c>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="I93" s="4"/>
+      <c r="J93" t="s">
+        <v>136</v>
+      </c>
+      <c r="K93" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.35">
@@ -3778,29 +3778,29 @@
       <c r="C94">
         <v>8.9710000000000001</v>
       </c>
-      <c r="D94" s="4">
-        <v>44463.698611111111</v>
-      </c>
-      <c r="E94" t="s">
-        <v>125</v>
-      </c>
-      <c r="F94" t="s">
-        <v>126</v>
-      </c>
-      <c r="G94">
-        <v>1</v>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>93</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="H94">
         <v>3</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K94">
-        <v>93</v>
+      <c r="I94" s="4">
+        <v>44463.698611111111</v>
+      </c>
+      <c r="J94" t="s">
+        <v>125</v>
+      </c>
+      <c r="K94" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.35">
@@ -3813,20 +3813,20 @@
       <c r="C95">
         <v>14.628</v>
       </c>
-      <c r="D95" s="4"/>
-      <c r="E95" t="s">
-        <v>136</v>
-      </c>
-      <c r="F95" t="s">
-        <v>136</v>
-      </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-      <c r="I95" s="3"/>
-      <c r="J95" s="3"/>
-      <c r="K95">
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
         <v>94</v>
+      </c>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="I95" s="4"/>
+      <c r="J95" t="s">
+        <v>136</v>
+      </c>
+      <c r="K95" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.35">
@@ -3839,29 +3839,29 @@
       <c r="C96">
         <v>9.0280000000000005</v>
       </c>
-      <c r="D96" s="4">
-        <v>44464.34375</v>
-      </c>
-      <c r="E96" t="s">
-        <v>127</v>
-      </c>
-      <c r="F96" t="s">
-        <v>128</v>
-      </c>
-      <c r="G96">
-        <v>1</v>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>95</v>
+      </c>
+      <c r="F96" s="3">
+        <v>37</v>
+      </c>
+      <c r="G96" s="3">
+        <v>108</v>
       </c>
       <c r="H96">
         <v>34</v>
       </c>
-      <c r="I96" s="3">
-        <v>37</v>
-      </c>
-      <c r="J96" s="3">
-        <v>108</v>
-      </c>
-      <c r="K96">
-        <v>95</v>
+      <c r="I96" s="4">
+        <v>44464.34375</v>
+      </c>
+      <c r="J96" t="s">
+        <v>127</v>
+      </c>
+      <c r="K96" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.35">
@@ -3874,29 +3874,29 @@
       <c r="C97">
         <v>9.0280000000000005</v>
       </c>
-      <c r="D97" s="4">
-        <v>44464.351388888892</v>
-      </c>
-      <c r="E97" t="s">
-        <v>129</v>
-      </c>
-      <c r="F97" t="s">
-        <v>130</v>
-      </c>
-      <c r="G97">
-        <v>1</v>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>96</v>
+      </c>
+      <c r="F97" s="3">
+        <v>82</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="H97">
         <v>15</v>
       </c>
-      <c r="I97" s="3">
-        <v>82</v>
-      </c>
-      <c r="J97" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K97">
-        <v>96</v>
+      <c r="I97" s="4">
+        <v>44464.351388888892</v>
+      </c>
+      <c r="J97" t="s">
+        <v>129</v>
+      </c>
+      <c r="K97" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.35">
@@ -3909,29 +3909,29 @@
       <c r="C98">
         <v>24.617999999999999</v>
       </c>
-      <c r="D98" s="4">
-        <v>44465.328472222223</v>
-      </c>
-      <c r="E98" t="s">
-        <v>131</v>
-      </c>
-      <c r="F98" t="s">
-        <v>132</v>
-      </c>
-      <c r="G98">
-        <v>1</v>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>97</v>
+      </c>
+      <c r="F98" s="3">
+        <v>56</v>
+      </c>
+      <c r="G98" s="3">
+        <v>-22</v>
       </c>
       <c r="H98">
         <v>9</v>
       </c>
-      <c r="I98" s="3">
-        <v>56</v>
-      </c>
-      <c r="J98" s="3">
-        <v>-22</v>
-      </c>
-      <c r="K98">
-        <v>97</v>
+      <c r="I98" s="4">
+        <v>44465.328472222223</v>
+      </c>
+      <c r="J98" t="s">
+        <v>131</v>
+      </c>
+      <c r="K98" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.35">
@@ -3944,20 +3944,20 @@
       <c r="C99">
         <v>2.7559999999999998</v>
       </c>
-      <c r="D99" s="4"/>
-      <c r="E99" t="s">
-        <v>136</v>
-      </c>
-      <c r="F99" t="s">
-        <v>136</v>
-      </c>
-      <c r="G99">
-        <v>0</v>
-      </c>
-      <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
-      <c r="K99">
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
         <v>98</v>
+      </c>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="I99" s="4"/>
+      <c r="J99" t="s">
+        <v>136</v>
+      </c>
+      <c r="K99" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.35">
@@ -3970,20 +3970,20 @@
       <c r="C100">
         <v>8.2080000000000002</v>
       </c>
-      <c r="D100" s="4"/>
-      <c r="E100" t="s">
-        <v>136</v>
-      </c>
-      <c r="F100" t="s">
-        <v>136</v>
-      </c>
-      <c r="G100">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3"/>
-      <c r="J100" s="3"/>
-      <c r="K100">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
         <v>99</v>
+      </c>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="I100" s="4"/>
+      <c r="J100" t="s">
+        <v>136</v>
+      </c>
+      <c r="K100" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.35">
@@ -3996,20 +3996,20 @@
       <c r="C101">
         <v>6.3090000000000002</v>
       </c>
-      <c r="D101" s="4"/>
-      <c r="E101" t="s">
-        <v>136</v>
-      </c>
-      <c r="F101" t="s">
-        <v>136</v>
-      </c>
-      <c r="G101">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3"/>
-      <c r="J101" s="3"/>
-      <c r="K101">
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
         <v>100</v>
+      </c>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="I101" s="4"/>
+      <c r="J101" t="s">
+        <v>136</v>
+      </c>
+      <c r="K101" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.35">
@@ -4022,20 +4022,20 @@
       <c r="C102">
         <v>16.849</v>
       </c>
-      <c r="D102" s="4"/>
-      <c r="E102" t="s">
-        <v>136</v>
-      </c>
-      <c r="F102" t="s">
-        <v>136</v>
-      </c>
-      <c r="G102">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3"/>
-      <c r="J102" s="3"/>
-      <c r="K102">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
         <v>101</v>
+      </c>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="I102" s="4"/>
+      <c r="J102" t="s">
+        <v>136</v>
+      </c>
+      <c r="K102" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.35">
@@ -4048,20 +4048,20 @@
       <c r="C103">
         <v>7.1079999999999997</v>
       </c>
-      <c r="D103" s="4"/>
-      <c r="E103" t="s">
-        <v>136</v>
-      </c>
-      <c r="F103" t="s">
-        <v>136</v>
-      </c>
-      <c r="G103">
-        <v>0</v>
-      </c>
-      <c r="I103" s="3"/>
-      <c r="J103" s="3"/>
-      <c r="K103">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
         <v>102</v>
+      </c>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="I103" s="4"/>
+      <c r="J103" t="s">
+        <v>136</v>
+      </c>
+      <c r="K103" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.35">
@@ -4074,20 +4074,20 @@
       <c r="C104">
         <v>10.303000000000001</v>
       </c>
-      <c r="D104" s="4"/>
-      <c r="E104" t="s">
-        <v>136</v>
-      </c>
-      <c r="F104" t="s">
-        <v>136</v>
-      </c>
-      <c r="G104">
-        <v>0</v>
-      </c>
-      <c r="I104" s="3"/>
-      <c r="J104" s="3"/>
-      <c r="K104">
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
         <v>103</v>
+      </c>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="I104" s="4"/>
+      <c r="J104" t="s">
+        <v>136</v>
+      </c>
+      <c r="K104" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.35">
@@ -4100,20 +4100,20 @@
       <c r="C105">
         <v>2.7559999999999998</v>
       </c>
-      <c r="D105" s="4"/>
-      <c r="E105" t="s">
-        <v>136</v>
-      </c>
-      <c r="F105" t="s">
-        <v>136</v>
-      </c>
-      <c r="G105">
-        <v>0</v>
-      </c>
-      <c r="I105" s="3"/>
-      <c r="J105" s="3"/>
-      <c r="K105">
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
         <v>104</v>
+      </c>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="I105" s="4"/>
+      <c r="J105" t="s">
+        <v>136</v>
+      </c>
+      <c r="K105" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.35">
@@ -4126,20 +4126,20 @@
       <c r="C106">
         <v>7.1870000000000003</v>
       </c>
-      <c r="D106" s="4"/>
-      <c r="E106" t="s">
-        <v>136</v>
-      </c>
-      <c r="F106" t="s">
-        <v>136</v>
-      </c>
-      <c r="G106">
-        <v>0</v>
-      </c>
-      <c r="I106" s="3"/>
-      <c r="J106" s="3"/>
-      <c r="K106">
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
         <v>105</v>
+      </c>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="I106" s="4"/>
+      <c r="J106" t="s">
+        <v>136</v>
+      </c>
+      <c r="K106" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.35">
@@ -4152,20 +4152,20 @@
       <c r="C107">
         <v>12.569000000000001</v>
       </c>
-      <c r="D107" s="4"/>
-      <c r="E107" t="s">
-        <v>136</v>
-      </c>
-      <c r="F107" t="s">
-        <v>136</v>
-      </c>
-      <c r="G107">
-        <v>0</v>
-      </c>
-      <c r="I107" s="3"/>
-      <c r="J107" s="3"/>
-      <c r="K107">
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
         <v>106</v>
+      </c>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="I107" s="4"/>
+      <c r="J107" t="s">
+        <v>136</v>
+      </c>
+      <c r="K107" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
